--- a/xlsx/雅尔塔会议_intext.xlsx
+++ b/xlsx/雅尔塔会议_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
   <si>
     <t>雅尔塔会议</t>
   </si>
@@ -29,7 +29,7 @@
     <t>丘吉尔</t>
   </si>
   <si>
-    <t>政策_政策_美國_雅尔塔会议</t>
+    <t>政策_政策_美国_雅尔塔会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%93%A6%E5%B9%BE%E4%BA%9E%E5%AE%AB</t>
   </si>
   <si>
-    <t>里瓦幾亞宫</t>
+    <t>里瓦几亚宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BD%93%E7%B3%BB</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國</t>
+    <t>同盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%A8%E5%9D%A6%E4%BC%9A%E8%AE%AE</t>
@@ -161,37 +161,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>羅斯福</t>
+    <t>罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B1%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>邱吉爾</t>
+    <t>邱吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>克里米亞半島</t>
+    <t>克里米亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E4%BA%8C%E4%B8%96_(%E4%BF%84%E7%BD%97%E6%96%AF)</t>
@@ -257,31 +257,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E7%B4%85%E8%BB%8D</t>
   </si>
   <si>
-    <t>蘇聯紅軍</t>
+    <t>苏联红军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A7%E7%88%BE%E5%90%89%C2%B7%E6%9C%B1%E5%8F%AF%E5%A4%AB</t>
   </si>
   <si>
-    <t>格奧爾吉·朱可夫</t>
+    <t>格奥尔吉·朱可夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%B8%A5</t>
   </si>
   <si>
-    <t>元帥</t>
+    <t>元帅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -299,43 +296,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>日俄戰爭</t>
+    <t>日俄战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80</t>
   </si>
   <si>
-    <t>杜魯門</t>
+    <t>杜鲁门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>原子彈</t>
+    <t>原子弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E9%A2%86%E5%9C%9F%E8%8C%83%E5%9B%B4%E7%9A%84%E6%BC%94%E5%8F%98</t>
@@ -389,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E%E5%92%8C%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>波希米亞和摩拉維亞保護國</t>
+    <t>波希米亚和摩拉维亚保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E4%BD%A9%E9%81%94%E5%8D%80</t>
   </si>
   <si>
-    <t>克萊佩達區</t>
+    <t>克莱佩达区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%B7%E6%84%8F%E5%BF%97</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0%E5%BE%8C%E8%8D%B7%E8%98%AD%E5%B0%8D%E5%BE%B7%E5%9C%8B%E7%9A%84%E9%A0%98%E5%9C%9F%E8%81%B2%E7%B4%A2</t>
   </si>
   <si>
-    <t>二次大戰後荷蘭對德國的領土聲索</t>
+    <t>二次大战后荷兰对德国的领土声索</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Belgian_annexation_plans_after_the_Second_World_War</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>薩爾條約</t>
+    <t>萨尔条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E4%BF%9D%E8%AD%B7%E9%A0%98</t>
   </si>
   <si>
-    <t>薩爾保護領</t>
+    <t>萨尔保护领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E5%A4%AB%E5%9D%8E%E7%89%B9</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%87%E6%9D%BE%E7%B7%9A</t>
   </si>
   <si>
-    <t>寇松線</t>
+    <t>寇松线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E6%B2%B3-%E5%B0%BC%E6%96%AF%E6%B2%B3%E7%BA%BF</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E6%8A%95%E9%99%8D</t>
   </si>
   <si>
-    <t>無條件投降</t>
+    <t>无条件投降</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -575,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>民主選舉</t>
+    <t>民主选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%B5%81%E4%BA%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>波蘭流亡政府</t>
+    <t>波兰流亡政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -629,21 +626,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -659,9 +653,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>德軍</t>
+    <t>德军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E7%BD%AA</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%98%AD%E5%B7%B4%E6%89%98</t>
   </si>
   <si>
-    <t>烏蘭巴托</t>
+    <t>乌兰巴托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E6%B7%91%E5%B8%8C</t>
@@ -797,27 +788,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83166%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會166號決議</t>
+    <t>联合国安理会166号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E5%9B%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>北方四島</t>
+    <t>北方四岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%95%99%E7%94%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿留申群島</t>
+    <t>阿留申群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%93%E9%B1%BC%E5%8F%B0%E5%88%97%E5%B2%9B</t>
   </si>
   <si>
@@ -827,9 +815,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
@@ -839,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%B8%AF</t>
   </si>
   <si>
-    <t>荷蘭港</t>
+    <t>荷兰港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%8A%95%E9%99%8D</t>
@@ -857,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E6%9D%B1%E8%BB%8D</t>
   </si>
   <si>
-    <t>關東軍</t>
+    <t>关东军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AB%A9%E6%B1%9F%E7%9C%81</t>
@@ -869,31 +854,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F%E7%9C%81</t>
   </si>
   <si>
-    <t>黑龍江省</t>
+    <t>黑龙江省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%93%88%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>察哈爾省</t>
+    <t>察哈尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E5%81%BD%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>汪偽政府</t>
+    <t>汪伪政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AA%E6%BB%A1%E6%B4%B2%E5%9B%BD</t>
@@ -911,9 +896,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -923,9 +905,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Cold_War</t>
   </si>
   <si>
@@ -941,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -989,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -1001,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E6%80%9D%E8%AE%AE%E8%A1%8C%E5%8A%A8</t>
@@ -1019,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%A0%BC%E5%B0%94%C2%B7%E5%8F%A4%E7%90%B4%E7%A7%91</t>
@@ -1055,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -1079,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%AE%A1%E5%88%92</t>
@@ -1109,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -1127,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -1139,19 +1118,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -1163,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -1175,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%BE%B7%E5%85%AD%E4%B8%80%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -1199,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -1217,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
+    <t>波兹南事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%8D%81%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -1301,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -1313,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -1331,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -1349,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -1373,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -1397,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -1409,13 +1388,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1439,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -1499,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -1529,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -1559,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -1571,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -1607,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -1619,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -1631,25 +1610,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -1667,19 +1646,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -1697,13 +1676,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(1979%E5%B9%B4)</t>
@@ -1721,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1751,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
@@ -1769,13 +1748,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -1787,13 +1766,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -1811,19 +1790,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -1853,19 +1832,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -1883,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -1901,13 +1880,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -1919,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -1937,19 +1916,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -1967,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -1985,13 +1964,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -2009,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -2039,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -2051,19 +2030,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -2117,25 +2096,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -2147,13 +2126,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2213,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -2237,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2267,13 +2246,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -2291,7 +2270,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -2339,13 +2318,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -2357,13 +2336,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2375,7 +2354,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -2393,13 +2372,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -2411,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2435,7 +2414,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2447,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3984,7 +3963,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -4010,10 +3989,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4039,10 +4018,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -4068,10 +4047,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4097,10 +4076,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4126,10 +4105,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -4155,10 +4134,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4184,10 +4163,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -4213,10 +4192,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4242,10 +4221,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4271,10 +4250,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4300,10 +4279,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4329,10 +4308,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4358,10 +4337,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4387,10 +4366,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4416,10 +4395,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4445,10 +4424,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4474,10 +4453,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4503,10 +4482,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4532,10 +4511,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4561,10 +4540,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4590,10 +4569,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4619,10 +4598,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4648,10 +4627,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4677,10 +4656,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4706,10 +4685,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4735,10 +4714,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4764,10 +4743,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4793,10 +4772,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4822,10 +4801,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4851,10 +4830,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4880,10 +4859,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4909,10 +4888,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4938,10 +4917,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4967,10 +4946,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4996,10 +4975,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5025,10 +5004,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5054,10 +5033,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5083,10 +5062,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5112,10 +5091,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5141,10 +5120,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5170,10 +5149,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5199,10 +5178,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="s">
         <v>147</v>
-      </c>
-      <c r="F83" t="s">
-        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5228,10 +5207,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5257,10 +5236,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5286,10 +5265,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5315,10 +5294,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5344,10 +5323,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -5373,10 +5352,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5402,10 +5381,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>25</v>
@@ -5431,10 +5410,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5460,10 +5439,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5489,10 +5468,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>18</v>
@@ -5518,10 +5497,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5547,10 +5526,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5576,10 +5555,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5605,10 +5584,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5634,10 +5613,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -5663,10 +5642,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5692,10 +5671,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5721,10 +5700,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5750,10 +5729,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5779,10 +5758,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5808,10 +5787,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5837,10 +5816,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5866,10 +5845,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="G106" t="n">
         <v>9</v>
@@ -5895,10 +5874,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5924,10 +5903,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5953,10 +5932,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="G109" t="n">
         <v>12</v>
@@ -5982,10 +5961,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>11</v>
@@ -6011,10 +5990,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6040,10 +6019,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6069,10 +6048,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6098,10 +6077,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6127,10 +6106,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6156,10 +6135,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6185,10 +6164,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6214,10 +6193,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6243,10 +6222,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6272,10 +6251,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -6301,10 +6280,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6330,10 +6309,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6359,10 +6338,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6388,10 +6367,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6417,10 +6396,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6446,10 +6425,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6475,10 +6454,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6504,10 +6483,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6533,10 +6512,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6562,10 +6541,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6591,10 +6570,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6620,10 +6599,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6649,10 +6628,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6678,10 +6657,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6707,10 +6686,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="G135" t="n">
         <v>24</v>
@@ -6736,10 +6715,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6765,10 +6744,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -6794,10 +6773,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6823,10 +6802,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6852,10 +6831,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6881,10 +6860,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>10</v>
@@ -6910,10 +6889,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6939,10 +6918,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6968,10 +6947,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6997,10 +6976,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7026,10 +7005,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7055,10 +7034,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7084,10 +7063,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7113,10 +7092,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7142,10 +7121,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7171,10 +7150,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7200,10 +7179,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7258,10 +7237,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7287,10 +7266,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>8</v>
@@ -7316,10 +7295,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7345,10 +7324,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7374,10 +7353,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7403,10 +7382,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7432,10 +7411,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7461,10 +7440,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7490,10 +7469,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7519,10 +7498,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7548,10 +7527,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7577,10 +7556,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7606,10 +7585,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7635,10 +7614,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7664,10 +7643,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7693,10 +7672,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7751,10 +7730,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7780,10 +7759,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7809,10 +7788,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7838,10 +7817,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7867,10 +7846,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7896,10 +7875,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7925,10 +7904,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7954,10 +7933,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7983,10 +7962,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8012,10 +7991,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8041,10 +8020,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8070,10 +8049,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8099,10 +8078,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8128,10 +8107,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8157,10 +8136,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8186,10 +8165,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8215,10 +8194,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8244,10 +8223,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8273,10 +8252,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8302,10 +8281,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8331,10 +8310,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8360,10 +8339,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8389,10 +8368,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8418,10 +8397,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8447,10 +8426,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8476,10 +8455,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8505,10 +8484,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8534,10 +8513,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8563,10 +8542,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8592,10 +8571,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8621,10 +8600,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8650,10 +8629,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8679,10 +8658,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8708,10 +8687,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8737,10 +8716,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8766,10 +8745,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8795,10 +8774,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8824,10 +8803,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8853,10 +8832,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8882,10 +8861,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8911,10 +8890,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8940,10 +8919,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8969,10 +8948,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8998,10 +8977,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9027,10 +9006,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9056,10 +9035,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9085,10 +9064,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9114,10 +9093,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9143,10 +9122,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9172,10 +9151,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9201,10 +9180,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9230,10 +9209,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9259,10 +9238,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9288,10 +9267,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9317,10 +9296,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9346,10 +9325,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9375,10 +9354,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9404,10 +9383,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9433,10 +9412,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9462,10 +9441,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9491,10 +9470,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9520,10 +9499,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9549,10 +9528,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9578,10 +9557,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9607,10 +9586,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9636,10 +9615,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9665,10 +9644,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9694,10 +9673,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9723,10 +9702,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9752,10 +9731,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9781,10 +9760,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9810,10 +9789,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9839,10 +9818,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9868,10 +9847,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9897,10 +9876,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9926,10 +9905,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9955,10 +9934,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9984,10 +9963,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10013,10 +9992,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10042,10 +10021,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10071,10 +10050,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10100,10 +10079,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10129,10 +10108,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10158,10 +10137,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10187,10 +10166,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10216,10 +10195,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10245,10 +10224,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10274,10 +10253,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10303,10 +10282,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10332,10 +10311,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10361,10 +10340,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10390,10 +10369,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10419,10 +10398,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10448,10 +10427,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10477,10 +10456,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10506,10 +10485,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10535,10 +10514,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10564,10 +10543,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10593,10 +10572,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F269" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10622,10 +10601,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10651,10 +10630,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10680,10 +10659,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10709,10 +10688,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10738,10 +10717,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10767,10 +10746,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10796,10 +10775,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10825,10 +10804,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10854,10 +10833,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10883,10 +10862,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10912,10 +10891,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10941,10 +10920,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10970,10 +10949,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10999,10 +10978,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11028,10 +11007,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11057,10 +11036,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11086,10 +11065,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11115,10 +11094,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11144,10 +11123,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11173,10 +11152,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11202,10 +11181,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11231,10 +11210,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11260,10 +11239,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11289,10 +11268,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11318,10 +11297,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11347,10 +11326,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11376,10 +11355,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11405,10 +11384,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11434,10 +11413,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11463,10 +11442,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11492,10 +11471,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11521,10 +11500,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11550,10 +11529,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11579,10 +11558,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11608,10 +11587,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F304" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11637,10 +11616,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11666,10 +11645,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11695,10 +11674,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11724,10 +11703,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11753,10 +11732,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11782,10 +11761,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11811,10 +11790,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11840,10 +11819,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11869,10 +11848,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11898,10 +11877,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11927,10 +11906,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11956,10 +11935,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11985,10 +11964,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12014,10 +11993,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12043,10 +12022,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12072,10 +12051,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12101,10 +12080,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12130,10 +12109,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12159,10 +12138,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12188,10 +12167,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12217,10 +12196,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12246,10 +12225,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12275,10 +12254,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12304,10 +12283,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12333,10 +12312,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12362,10 +12341,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12391,10 +12370,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12420,10 +12399,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12449,10 +12428,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12478,10 +12457,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12507,10 +12486,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12536,10 +12515,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12565,10 +12544,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12594,10 +12573,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12623,10 +12602,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12652,10 +12631,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12681,10 +12660,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12710,10 +12689,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12739,10 +12718,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12768,10 +12747,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12797,10 +12776,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12826,10 +12805,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12855,10 +12834,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12884,10 +12863,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12913,10 +12892,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12942,10 +12921,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12971,10 +12950,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13000,10 +12979,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13029,10 +13008,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13058,10 +13037,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13087,10 +13066,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13116,10 +13095,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13145,10 +13124,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13174,10 +13153,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13203,10 +13182,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13232,10 +13211,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13261,10 +13240,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13290,10 +13269,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13319,10 +13298,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G363" t="n">
         <v>4</v>
@@ -13348,10 +13327,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13377,10 +13356,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13406,10 +13385,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13435,10 +13414,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13464,10 +13443,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13493,10 +13472,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13522,10 +13501,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13551,10 +13530,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13580,10 +13559,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13609,10 +13588,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13638,10 +13617,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13667,10 +13646,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13696,10 +13675,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13725,10 +13704,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13754,10 +13733,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13783,10 +13762,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13812,10 +13791,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13841,10 +13820,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F381" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13870,10 +13849,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13899,10 +13878,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13928,10 +13907,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13957,10 +13936,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13986,10 +13965,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14015,10 +13994,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14044,10 +14023,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F388" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14073,10 +14052,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F389" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14102,10 +14081,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14131,10 +14110,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14160,10 +14139,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F392" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14189,10 +14168,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14218,10 +14197,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14247,10 +14226,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F395" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14276,10 +14255,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14305,10 +14284,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14334,10 +14313,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14363,10 +14342,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G399" t="n">
         <v>4</v>
@@ -14392,10 +14371,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14421,10 +14400,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14450,10 +14429,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14479,10 +14458,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14508,10 +14487,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14537,10 +14516,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14566,10 +14545,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -14595,10 +14574,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F407" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14624,10 +14603,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F408" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14653,10 +14632,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F409" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14682,10 +14661,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F410" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14711,10 +14690,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F411" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14740,10 +14719,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F412" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14769,10 +14748,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F413" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>

--- a/xlsx/雅尔塔会议_intext.xlsx
+++ b/xlsx/雅尔塔会议_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
   <si>
     <t>雅尔塔会议</t>
   </si>
@@ -29,7 +29,7 @@
     <t>丘吉尔</t>
   </si>
   <si>
-    <t>政策_政策_美國_雅尔塔会议</t>
+    <t>体育运动_体育运动_南非_雅尔塔会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -1644,6 +1644,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -2802,7 +2808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3233,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -5495,7 +5501,7 @@
         <v>182</v>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5872,7 +5878,7 @@
         <v>208</v>
       </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6887,7 +6893,7 @@
         <v>278</v>
       </c>
       <c r="G141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -11608,10 +11614,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>373</v>
+        <v>597</v>
       </c>
       <c r="F304" t="s">
-        <v>374</v>
+        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11637,10 +11643,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>373</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>374</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12455,7 +12461,7 @@
         <v>654</v>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12484,7 +12490,7 @@
         <v>656</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13325,7 +13331,7 @@
         <v>714</v>
       </c>
       <c r="G363" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13354,7 +13360,7 @@
         <v>716</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13841,10 +13847,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>315</v>
+        <v>749</v>
       </c>
       <c r="F381" t="s">
-        <v>316</v>
+        <v>750</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13870,10 +13876,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>315</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>316</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14369,7 +14375,7 @@
         <v>784</v>
       </c>
       <c r="G399" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14398,7 +14404,7 @@
         <v>786</v>
       </c>
       <c r="G400" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14572,7 +14578,7 @@
         <v>798</v>
       </c>
       <c r="G406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -14601,7 +14607,7 @@
         <v>800</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14781,6 +14787,35 @@
         <v>4</v>
       </c>
       <c r="I413" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1</v>
+      </c>
+      <c r="D414" t="n">
+        <v>413</v>
+      </c>
+      <c r="E414" t="s">
+        <v>813</v>
+      </c>
+      <c r="F414" t="s">
+        <v>814</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1</v>
+      </c>
+      <c r="H414" t="s">
+        <v>4</v>
+      </c>
+      <c r="I414" t="n">
         <v>3</v>
       </c>
     </row>
